--- a/Map Data.xlsx
+++ b/Map Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\VM Shared Folder\Github\DataVis\DataVis2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D9EB0C-9977-4339-A76B-5A2687EC1289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DB008B-8147-40F3-A1E8-5A80BC980BD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Dates" sheetId="2" r:id="rId1"/>
@@ -14427,14 +14427,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14771,9 +14771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25147E39-1527-4C70-AB01-67A5747133E9}">
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18471,9 +18471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A65E5-9EDC-4BB6-B2A3-1DFF833E97F5}">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21526,7 +21526,7 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
